--- a/TABLERO_MORTALIDAD.xlsx
+++ b/TABLERO_MORTALIDAD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luciana\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luciana\Desktop\curso_shiny_Luciana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03062582-E654-417B-9B16-88EED44C8694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A988E93C-F34E-4CB8-AFDD-A706CD7B30B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{5E85B1B9-BC6A-4999-99B4-EBF81094AAC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5E85B1B9-BC6A-4999-99B4-EBF81094AAC7}"/>
   </bookViews>
   <sheets>
     <sheet name="totales_2021" sheetId="1" r:id="rId1"/>
@@ -167,7 +167,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586EE3BA-7366-4504-87FE-85C23835F7E6}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,21 +520,21 @@
       <c r="B2" s="1">
         <v>555.70391392718068</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <f>4.3794*100</f>
         <v>437.94000000000005</v>
       </c>
       <c r="D2" s="1">
         <v>561.09021110649633</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <f>5.36*100</f>
         <v>536</v>
       </c>
       <c r="F2" s="1">
         <v>543.61119387522581</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <f>3.59*100</f>
         <v>359</v>
       </c>
@@ -543,22 +543,22 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>21.51</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>17.54</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>23.4</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>22.42</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>19.54</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>13.7</v>
       </c>
     </row>
@@ -566,19 +566,19 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>234.46</v>
       </c>
       <c r="C4" s="2">
         <v>178.05</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>234.3</v>
       </c>
       <c r="E4" s="2">
         <v>448.69</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>231.31</v>
       </c>
       <c r="G4" s="2">
@@ -589,19 +589,19 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>21.09</v>
       </c>
       <c r="C5" s="2">
         <v>16.41</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>22.66</v>
       </c>
       <c r="E5" s="2">
         <v>43.06</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>19.260000000000002</v>
       </c>
       <c r="G5" s="2">
@@ -612,19 +612,19 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>11.71</v>
       </c>
       <c r="C6" s="2">
         <v>9.2799999999999994</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>13.2</v>
       </c>
       <c r="E6" s="2">
         <v>13.01</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>9.84</v>
       </c>
       <c r="G6" s="2">
@@ -641,7 +641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E0F0E8-5810-4712-A181-1704C0D06AA6}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>

--- a/TABLERO_MORTALIDAD.xlsx
+++ b/TABLERO_MORTALIDAD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luciana\Desktop\curso_shiny_Luciana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A988E93C-F34E-4CB8-AFDD-A706CD7B30B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2BF73F-9FDF-47F7-B324-CD7FADFB2462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5E85B1B9-BC6A-4999-99B4-EBF81094AAC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{5E85B1B9-BC6A-4999-99B4-EBF81094AAC7}"/>
   </bookViews>
   <sheets>
     <sheet name="totales_2021" sheetId="1" r:id="rId1"/>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586EE3BA-7366-4504-87FE-85C23835F7E6}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,25 +518,22 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>555.70391392718068</v>
+        <v>552.70391392718102</v>
       </c>
       <c r="C2" s="1">
-        <f>4.3794*100</f>
-        <v>437.94000000000005</v>
+        <v>430.94</v>
       </c>
       <c r="D2" s="1">
-        <v>561.09021110649633</v>
+        <v>563.09021110649599</v>
       </c>
       <c r="E2" s="1">
-        <f>5.36*100</f>
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="F2" s="1">
-        <v>543.61119387522581</v>
+        <v>548.61119387522604</v>
       </c>
       <c r="G2" s="1">
-        <f>3.59*100</f>
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -544,22 +541,22 @@
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>21.51</v>
+        <v>23.51</v>
       </c>
       <c r="C3" s="1">
-        <v>17.54</v>
+        <v>15.54</v>
       </c>
       <c r="D3" s="1">
-        <v>23.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>22.42</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="F3" s="1">
-        <v>19.54</v>
+        <v>18.54</v>
       </c>
       <c r="G3" s="1">
-        <v>13.7</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -567,22 +564,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>234.46</v>
+        <v>230.46</v>
       </c>
       <c r="C4" s="2">
-        <v>178.05</v>
+        <v>179.05</v>
       </c>
       <c r="D4" s="1">
-        <v>234.3</v>
+        <v>230.3</v>
       </c>
       <c r="E4" s="2">
-        <v>448.69</v>
+        <v>440.69</v>
       </c>
       <c r="F4" s="1">
-        <v>231.31</v>
+        <v>230.31</v>
       </c>
       <c r="G4" s="2">
-        <v>140.49</v>
+        <v>145.49</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -590,22 +587,22 @@
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>21.09</v>
+        <v>20.09</v>
       </c>
       <c r="C5" s="2">
-        <v>16.41</v>
+        <v>18.41</v>
       </c>
       <c r="D5" s="1">
-        <v>22.66</v>
+        <v>29.66</v>
       </c>
       <c r="E5" s="2">
-        <v>43.06</v>
+        <v>40.06</v>
       </c>
       <c r="F5" s="1">
-        <v>19.260000000000002</v>
+        <v>15.26</v>
       </c>
       <c r="G5" s="2">
-        <v>12.65</v>
+        <v>15.65</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -613,22 +610,22 @@
         <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>11.71</v>
+        <v>15.71</v>
       </c>
       <c r="C6" s="2">
-        <v>9.2799999999999994</v>
+        <v>10.28</v>
       </c>
       <c r="D6" s="1">
-        <v>13.2</v>
+        <v>15.2</v>
       </c>
       <c r="E6" s="2">
-        <v>13.01</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="F6" s="1">
-        <v>9.84</v>
+        <v>11.84</v>
       </c>
       <c r="G6" s="2">
-        <v>6.68</v>
+        <v>9.68</v>
       </c>
     </row>
   </sheetData>
@@ -641,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E0F0E8-5810-4712-A181-1704C0D06AA6}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,10 +666,10 @@
         <v>13</v>
       </c>
       <c r="C2" s="1">
-        <v>54.116022650970571</v>
+        <v>58.116022650970571</v>
       </c>
       <c r="D2" s="1">
-        <v>49.234333707417726</v>
+        <v>53.234333707417726</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -683,10 +680,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="1">
-        <v>10.816097872747832</v>
+        <v>14.816097872747832</v>
       </c>
       <c r="D3" s="1">
-        <v>7.0718566419535431</v>
+        <v>11.071856641953543</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -697,10 +694,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="1">
-        <v>10.510194889042371</v>
+        <v>14.510194889042371</v>
       </c>
       <c r="D4" s="1">
-        <v>10.126582278481013</v>
+        <v>14.126582278481013</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -711,10 +708,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="1">
-        <v>20.503014723170303</v>
+        <v>24.503014723170303</v>
       </c>
       <c r="D5" s="1">
-        <v>14.603835901953349</v>
+        <v>18.603835901953349</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -725,10 +722,10 @@
         <v>17</v>
       </c>
       <c r="C6" s="1">
-        <v>24.360590375555379</v>
+        <v>28.360590375555379</v>
       </c>
       <c r="D6" s="1">
-        <v>18.866041298745206</v>
+        <v>22.866041298745206</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -739,10 +736,10 @@
         <v>18</v>
       </c>
       <c r="C7" s="1">
-        <v>33.221665431073404</v>
+        <v>37.221665431073404</v>
       </c>
       <c r="D7" s="1">
-        <v>29.056932933319995</v>
+        <v>33.056932933319999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -753,10 +750,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="1">
-        <v>48.394539295240456</v>
+        <v>52.394539295240456</v>
       </c>
       <c r="D8" s="1">
-        <v>43.359122670921955</v>
+        <v>47.359122670921955</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -767,10 +764,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="1">
-        <v>78.780576034401065</v>
+        <v>82.780576034401065</v>
       </c>
       <c r="D9" s="1">
-        <v>76.215690403842885</v>
+        <v>80.215690403842885</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -781,10 +778,10 @@
         <v>21</v>
       </c>
       <c r="C10" s="1">
-        <v>143.10813135710302</v>
+        <v>147.10813135710302</v>
       </c>
       <c r="D10" s="1">
-        <v>119.83151270632715</v>
+        <v>123.83151270632715</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -795,10 +792,10 @@
         <v>22</v>
       </c>
       <c r="C11" s="1">
-        <v>230.5195070086682</v>
+        <v>234.5195070086682</v>
       </c>
       <c r="D11" s="1">
-        <v>187.29233276910537</v>
+        <v>191.29233276910537</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -809,10 +806,10 @@
         <v>23</v>
       </c>
       <c r="C12" s="1">
-        <v>455.27307092968624</v>
+        <v>459.27307092968624</v>
       </c>
       <c r="D12" s="1">
-        <v>290.8234790876113</v>
+        <v>294.8234790876113</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -823,10 +820,10 @@
         <v>24</v>
       </c>
       <c r="C13" s="1">
-        <v>782.95274633688916</v>
+        <v>786.95274633688916</v>
       </c>
       <c r="D13" s="1">
-        <v>461.03535419892842</v>
+        <v>465.03535419892842</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -837,10 +834,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="1">
-        <v>1266.2320465399589</v>
+        <v>1270.2320465399589</v>
       </c>
       <c r="D14" s="1">
-        <v>737.33441841767251</v>
+        <v>741.33441841767251</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -851,10 +848,10 @@
         <v>26</v>
       </c>
       <c r="C15" s="1">
-        <v>2020.0342554627084</v>
+        <v>2024.0342554627084</v>
       </c>
       <c r="D15" s="1">
-        <v>1122.0250125150208</v>
+        <v>1126.0250125150208</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -865,10 +862,10 @@
         <v>27</v>
       </c>
       <c r="C16" s="1">
-        <v>2985.0647808533658</v>
+        <v>2989.0647808533658</v>
       </c>
       <c r="D16" s="1">
-        <v>1696.6803631545572</v>
+        <v>1700.6803631545572</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -879,10 +876,10 @@
         <v>28</v>
       </c>
       <c r="C17" s="1">
-        <v>4483.2540051079641</v>
+        <v>4487.2540051079641</v>
       </c>
       <c r="D17" s="1">
-        <v>2682.683928793726</v>
+        <v>2686.683928793726</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -893,10 +890,10 @@
         <v>29</v>
       </c>
       <c r="C18" s="1">
-        <v>9021.8963144425325</v>
+        <v>9025.8963144425325</v>
       </c>
       <c r="D18" s="1">
-        <v>7322.8313112706182</v>
+        <v>7326.8313112706182</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -907,10 +904,10 @@
         <v>13</v>
       </c>
       <c r="C19" s="1">
-        <v>5.253982781647628E-2</v>
+        <v>4.0525398278164761</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -921,10 +918,10 @@
         <v>14</v>
       </c>
       <c r="C20" s="1">
-        <v>5.1751664462908284E-2</v>
+        <v>4.0517516644629081</v>
       </c>
       <c r="D20" s="1">
-        <v>5.4820594123670872E-2</v>
+        <v>4.0548205941236706</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -935,10 +932,10 @@
         <v>15</v>
       </c>
       <c r="C21" s="1">
-        <v>0.10724688662288133</v>
+        <v>4.1072468866228817</v>
       </c>
       <c r="D21" s="1">
-        <v>0.11378182335371924</v>
+        <v>4.1137818233537189</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -949,10 +946,10 @@
         <v>16</v>
       </c>
       <c r="C22" s="1">
-        <v>0.22285885568663369</v>
+        <v>4.222858855686634</v>
       </c>
       <c r="D22" s="1">
-        <v>0.40890740525469382</v>
+        <v>4.4089074052546939</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -963,10 +960,10 @@
         <v>17</v>
       </c>
       <c r="C23" s="1">
-        <v>0.67047496446482691</v>
+        <v>4.6704749644648267</v>
       </c>
       <c r="D23" s="1">
-        <v>0.23077726359321352</v>
+        <v>4.2307772635932137</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -977,10 +974,10 @@
         <v>18</v>
       </c>
       <c r="C24" s="1">
-        <v>0.947597839476926</v>
+        <v>4.9475978394769262</v>
       </c>
       <c r="D24" s="1">
-        <v>1.0740889605701944</v>
+        <v>5.0740889605701947</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -991,10 +988,10 @@
         <v>19</v>
       </c>
       <c r="C25" s="1">
-        <v>2.2509088044297885</v>
+        <v>6.2509088044297885</v>
       </c>
       <c r="D25" s="1">
-        <v>1.4748000908476857</v>
+        <v>5.4748000908476859</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1005,10 +1002,10 @@
         <v>20</v>
       </c>
       <c r="C26" s="1">
-        <v>2.9295929649009285</v>
+        <v>6.9295929649009285</v>
       </c>
       <c r="D26" s="1">
-        <v>2.1937081941895564</v>
+        <v>6.193708194189556</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1019,10 +1016,10 @@
         <v>21</v>
       </c>
       <c r="C27" s="1">
-        <v>4.5617346061007336</v>
+        <v>8.5617346061007336</v>
       </c>
       <c r="D27" s="1">
-        <v>3.8696253441429094</v>
+        <v>7.8696253441429089</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1033,10 +1030,10 @@
         <v>22</v>
       </c>
       <c r="C28" s="1">
-        <v>10.75461020471586</v>
+        <v>14.75461020471586</v>
       </c>
       <c r="D28" s="1">
-        <v>7.907740181578812</v>
+        <v>11.907740181578813</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1047,10 +1044,10 @@
         <v>23</v>
       </c>
       <c r="C29" s="1">
-        <v>21.237227798469327</v>
+        <v>25.237227798469327</v>
       </c>
       <c r="D29" s="1">
-        <v>11.362250260245657</v>
+        <v>15.362250260245657</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1061,10 +1058,10 @@
         <v>24</v>
       </c>
       <c r="C30" s="1">
-        <v>41.720744557853585</v>
+        <v>45.720744557853585</v>
       </c>
       <c r="D30" s="1">
-        <v>23.106135086620824</v>
+        <v>27.106135086620824</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1075,10 +1072,10 @@
         <v>25</v>
       </c>
       <c r="C31" s="1">
-        <v>65.10474139072555</v>
+        <v>69.10474139072555</v>
       </c>
       <c r="D31" s="1">
-        <v>38.043318397082032</v>
+        <v>42.043318397082032</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1089,10 +1086,10 @@
         <v>26</v>
       </c>
       <c r="C32" s="1">
-        <v>104.19369907095034</v>
+        <v>108.19369907095034</v>
       </c>
       <c r="D32" s="1">
-        <v>51.703193000789788</v>
+        <v>55.703193000789788</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1103,10 +1100,10 @@
         <v>27</v>
       </c>
       <c r="C33" s="1">
-        <v>145.2951420956804</v>
+        <v>149.2951420956804</v>
       </c>
       <c r="D33" s="1">
-        <v>82.61714621559338</v>
+        <v>86.61714621559338</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1117,10 +1114,10 @@
         <v>28</v>
       </c>
       <c r="C34" s="1">
-        <v>187.4371178701339</v>
+        <v>191.4371178701339</v>
       </c>
       <c r="D34" s="1">
-        <v>121.45844338051484</v>
+        <v>125.45844338051484</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1131,10 +1128,10 @@
         <v>29</v>
       </c>
       <c r="C35" s="1">
-        <v>279.43823599956221</v>
+        <v>283.43823599956221</v>
       </c>
       <c r="D35" s="1">
-        <v>196.20713262331759</v>
+        <v>200.20713262331759</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1145,10 +1142,10 @@
         <v>13</v>
       </c>
       <c r="C36" s="1">
-        <v>2.1015931126590512</v>
+        <v>6.1015931126590512</v>
       </c>
       <c r="D36" s="1">
-        <v>2.2277979053130195</v>
+        <v>6.2277979053130199</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1159,10 +1156,10 @@
         <v>14</v>
       </c>
       <c r="C37" s="1">
-        <v>1.035033289258166</v>
+        <v>5.0350332892581662</v>
       </c>
       <c r="D37" s="1">
-        <v>0.76748831773139214</v>
+        <v>4.7674883177313925</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1173,10 +1170,10 @@
         <v>15</v>
       </c>
       <c r="C38" s="1">
-        <v>0.85797509298305064</v>
+        <v>4.8579750929830503</v>
       </c>
       <c r="D38" s="1">
-        <v>1.1947091452140521</v>
+        <v>5.1947091452140519</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1187,10 +1184,10 @@
         <v>16</v>
       </c>
       <c r="C39" s="1">
-        <v>3.3428828352995055</v>
+        <v>7.3428828352995055</v>
       </c>
       <c r="D39" s="1">
-        <v>2.6871058059594164</v>
+        <v>6.6871058059594164</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1201,10 +1198,10 @@
         <v>17</v>
       </c>
       <c r="C40" s="1">
-        <v>5.9225288527726372</v>
+        <v>9.9225288527726363</v>
       </c>
       <c r="D40" s="1">
-        <v>4.2116850605761469</v>
+        <v>8.2116850605761478</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1215,10 +1212,10 @@
         <v>18</v>
       </c>
       <c r="C41" s="1">
-        <v>8.6956037034353209</v>
+        <v>12.695603703435321</v>
       </c>
       <c r="D41" s="1">
-        <v>7.0663747405933837</v>
+        <v>11.066374740593384</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1229,10 +1226,10 @@
         <v>19</v>
       </c>
       <c r="C42" s="1">
-        <v>15.282486093233828</v>
+        <v>19.282486093233828</v>
       </c>
       <c r="D42" s="1">
-        <v>8.0229124942114112</v>
+        <v>12.022912494211411</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1243,10 +1240,10 @@
         <v>20</v>
       </c>
       <c r="C43" s="1">
-        <v>28.786435220330866</v>
+        <v>32.786435220330866</v>
       </c>
       <c r="D43" s="1">
-        <v>13.726345557928941</v>
+        <v>17.726345557928941</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1257,10 +1254,10 @@
         <v>21</v>
       </c>
       <c r="C44" s="1">
-        <v>55.066653459358861</v>
+        <v>59.066653459358861</v>
       </c>
       <c r="D44" s="1">
-        <v>24.042426318527259</v>
+        <v>28.042426318527259</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1271,10 +1268,10 @@
         <v>22</v>
       </c>
       <c r="C45" s="1">
-        <v>87.816955050921223</v>
+        <v>91.816955050921223</v>
       </c>
       <c r="D45" s="1">
-        <v>40.03738722565128</v>
+        <v>44.03738722565128</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1285,10 +1282,10 @@
         <v>23</v>
       </c>
       <c r="C46" s="1">
-        <v>177.24236366805857</v>
+        <v>181.24236366805857</v>
       </c>
       <c r="D46" s="1">
-        <v>66.251944532167698</v>
+        <v>70.251944532167698</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1299,10 +1296,10 @@
         <v>24</v>
       </c>
       <c r="C47" s="1">
-        <v>302.18020409709521</v>
+        <v>306.18020409709521</v>
       </c>
       <c r="D47" s="1">
-        <v>117.61475820562285</v>
+        <v>121.61475820562285</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1313,10 +1310,10 @@
         <v>25</v>
       </c>
       <c r="C48" s="1">
-        <v>479.01641080871127</v>
+        <v>483.01641080871127</v>
       </c>
       <c r="D48" s="1">
-        <v>210.41484866014963</v>
+        <v>214.41484866014963</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1327,10 +1324,10 @@
         <v>26</v>
       </c>
       <c r="C49" s="1">
-        <v>776.06788809882187</v>
+        <v>780.06788809882187</v>
       </c>
       <c r="D49" s="1">
-        <v>363.01775763690119</v>
+        <v>367.01775763690119</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1341,10 +1338,10 @@
         <v>27</v>
       </c>
       <c r="C50" s="1">
-        <v>1191.3871810433545</v>
+        <v>1195.3871810433545</v>
       </c>
       <c r="D50" s="1">
-        <v>618.40416153263186</v>
+        <v>622.40416153263186</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1355,10 +1352,10 @@
         <v>28</v>
       </c>
       <c r="C51" s="1">
-        <v>1902.6681371410882</v>
+        <v>1906.6681371410882</v>
       </c>
       <c r="D51" s="1">
-        <v>1093.1259904246335</v>
+        <v>1097.1259904246335</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1369,10 +1366,10 @@
         <v>29</v>
       </c>
       <c r="C52" s="1">
-        <v>4388.5774963731246</v>
+        <v>4392.5774963731246</v>
       </c>
       <c r="D52" s="1">
-        <v>3921.4371584313781</v>
+        <v>3925.4371584313781</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1383,10 +1380,10 @@
         <v>13</v>
       </c>
       <c r="C53" s="1">
-        <v>0.31523896689885766</v>
+        <v>4.3152389668988578</v>
       </c>
       <c r="D53" s="1">
-        <v>5.5694947632825481E-2</v>
+        <v>4.0556949476328255</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1397,10 +1394,10 @@
         <v>14</v>
       </c>
       <c r="C54" s="1">
-        <v>0.10350332892581657</v>
+        <v>4.1035033289258163</v>
       </c>
       <c r="D54" s="1">
-        <v>0.10964118824734174</v>
+        <v>4.109641188247342</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1411,10 +1408,10 @@
         <v>15</v>
       </c>
       <c r="C55" s="1">
-        <v>0.16087032993432201</v>
+        <v>4.1608703299343217</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1425,10 +1422,10 @@
         <v>16</v>
       </c>
       <c r="C56" s="1">
-        <v>5.5714713921658422E-2</v>
+        <v>4.0557147139216587</v>
       </c>
       <c r="D56" s="1">
-        <v>0.1752460308234402</v>
+        <v>4.1752460308234403</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1439,10 +1436,10 @@
         <v>17</v>
       </c>
       <c r="C57" s="1">
-        <v>0.39111039593781571</v>
+        <v>4.3911103959378153</v>
       </c>
       <c r="D57" s="1">
-        <v>0.23077726359321352</v>
+        <v>4.2307772635932137</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1453,10 +1450,10 @@
         <v>18</v>
       </c>
       <c r="C58" s="1">
-        <v>0.44592839504796522</v>
+        <v>4.4459283950479653</v>
       </c>
       <c r="D58" s="1">
-        <v>0.28265498962373531</v>
+        <v>4.2826549896237349</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1467,10 +1464,10 @@
         <v>19</v>
       </c>
       <c r="C59" s="1">
-        <v>0.23693776888734616</v>
+        <v>4.236937768887346</v>
       </c>
       <c r="D59" s="1">
-        <v>0.35395202180344454</v>
+        <v>4.3539520218034449</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1481,10 +1478,10 @@
         <v>20</v>
       </c>
       <c r="C60" s="1">
-        <v>0.70055483943283081</v>
+        <v>4.7005548394328311</v>
       </c>
       <c r="D60" s="1">
-        <v>0.37606426186106684</v>
+        <v>4.3760642618610666</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1495,10 +1492,10 @@
         <v>21</v>
       </c>
       <c r="C61" s="1">
-        <v>0.91234692122014671</v>
+        <v>4.9123469212201467</v>
       </c>
       <c r="D61" s="1">
-        <v>0.82467425366980041</v>
+        <v>4.8246742536698006</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1509,10 +1506,10 @@
         <v>22</v>
       </c>
       <c r="C62" s="1">
-        <v>2.150922040943172</v>
+        <v>6.150922040943172</v>
       </c>
       <c r="D62" s="1">
-        <v>1.5672998558084132</v>
+        <v>5.5672998558084128</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1523,10 +1520,10 @@
         <v>23</v>
       </c>
       <c r="C63" s="1">
-        <v>5.2208185004570424</v>
+        <v>9.2208185004570424</v>
       </c>
       <c r="D63" s="1">
-        <v>2.1721949026940228</v>
+        <v>6.1721949026940228</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1537,10 +1534,10 @@
         <v>24</v>
       </c>
       <c r="C64" s="1">
-        <v>12.398145788418756</v>
+        <v>16.398145788418756</v>
       </c>
       <c r="D64" s="1">
-        <v>6.5240852009282317</v>
+        <v>10.524085200928232</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1551,10 +1548,10 @@
         <v>25</v>
       </c>
       <c r="C65" s="1">
-        <v>30.676471367155433</v>
+        <v>34.676471367155429</v>
       </c>
       <c r="D65" s="1">
-        <v>18.923609408857818</v>
+        <v>22.923609408857818</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1565,10 +1562,10 @@
         <v>26</v>
       </c>
       <c r="C66" s="1">
-        <v>47.620283386100589</v>
+        <v>51.620283386100589</v>
       </c>
       <c r="D66" s="1">
-        <v>29.575979047061956</v>
+        <v>33.575979047061956</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1579,10 +1576,10 @@
         <v>27</v>
       </c>
       <c r="C67" s="1">
-        <v>90.37654695622345</v>
+        <v>94.37654695622345</v>
       </c>
       <c r="D67" s="1">
-        <v>40.728577541540574</v>
+        <v>44.728577541540574</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1593,10 +1590,10 @@
         <v>28</v>
       </c>
       <c r="C68" s="1">
-        <v>126.73167711477441</v>
+        <v>130.73167711477441</v>
       </c>
       <c r="D68" s="1">
-        <v>68.131121286853883</v>
+        <v>72.131121286853883</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1607,10 +1604,10 @@
         <v>29</v>
       </c>
       <c r="C69" s="1">
-        <v>244.50845649961693</v>
+        <v>248.50845649961693</v>
       </c>
       <c r="D69" s="1">
-        <v>111.51340631109416</v>
+        <v>115.51340631109416</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1621,10 +1618,10 @@
         <v>13</v>
       </c>
       <c r="C70" s="1">
-        <v>0.52539827816476281</v>
+        <v>4.5253982781647633</v>
       </c>
       <c r="D70" s="1">
-        <v>0.38986463342977845</v>
+        <v>4.3898646334297782</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1635,10 +1632,10 @@
         <v>14</v>
       </c>
       <c r="C71" s="1">
-        <v>0.20700665785163314</v>
+        <v>4.2070066578516334</v>
       </c>
       <c r="D71" s="1">
-        <v>0.21928237649468349</v>
+        <v>4.2192823764946832</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1649,10 +1646,10 @@
         <v>15</v>
       </c>
       <c r="C72" s="1">
-        <v>0.10724688662288133</v>
+        <v>4.1072468866228817</v>
       </c>
       <c r="D72" s="1">
-        <v>0.34134547006115773</v>
+        <v>4.3413454700611576</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1663,10 +1660,10 @@
         <v>16</v>
       </c>
       <c r="C73" s="1">
-        <v>0.55714713921658421</v>
+        <v>4.5571471392165845</v>
       </c>
       <c r="D73" s="1">
-        <v>0.46732274886250724</v>
+        <v>4.4673227488625074</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1677,10 +1674,10 @@
         <v>17</v>
       </c>
       <c r="C74" s="1">
-        <v>0.72634787817022917</v>
+        <v>4.7263478781702295</v>
       </c>
       <c r="D74" s="1">
-        <v>1.3269692656609779</v>
+        <v>5.3269692656609777</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1691,10 +1688,10 @@
         <v>18</v>
       </c>
       <c r="C75" s="1">
-        <v>1.3935262345248911</v>
+        <v>5.3935262345248915</v>
       </c>
       <c r="D75" s="1">
-        <v>1.3002129522691825</v>
+        <v>5.3002129522691828</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1705,10 +1702,10 @@
         <v>19</v>
       </c>
       <c r="C76" s="1">
-        <v>1.8362677088769328</v>
+        <v>5.8362677088769326</v>
       </c>
       <c r="D76" s="1">
-        <v>1.4748000908476857</v>
+        <v>5.4748000908476859</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1719,10 +1716,10 @@
         <v>20</v>
       </c>
       <c r="C77" s="1">
-        <v>2.8659061613161261</v>
+        <v>6.8659061613161256</v>
       </c>
       <c r="D77" s="1">
-        <v>2.3190629481432454</v>
+        <v>6.3190629481432454</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1733,10 +1730,10 @@
         <v>21</v>
       </c>
       <c r="C78" s="1">
-        <v>5.8650873507009429</v>
+        <v>9.8650873507009429</v>
       </c>
       <c r="D78" s="1">
-        <v>3.996498306245956</v>
+        <v>7.9964983062459556</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1747,10 +1744,10 @@
         <v>22</v>
       </c>
       <c r="C79" s="1">
-        <v>8.6778578893224516</v>
+        <v>12.677857889322452</v>
       </c>
       <c r="D79" s="1">
-        <v>5.6280313004029381</v>
+        <v>9.6280313004029381</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1761,10 +1758,10 @@
         <v>23</v>
       </c>
       <c r="C80" s="1">
-        <v>15.396990153890261</v>
+        <v>19.396990153890261</v>
       </c>
       <c r="D80" s="1">
-        <v>7.7697740750209281</v>
+        <v>11.769774075020928</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1775,10 +1772,10 @@
         <v>24</v>
       </c>
       <c r="C81" s="1">
-        <v>25.288281489076351</v>
+        <v>29.288281489076351</v>
       </c>
       <c r="D81" s="1">
-        <v>15.222865468832541</v>
+        <v>19.222865468832541</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1789,10 +1786,10 @@
         <v>25</v>
       </c>
       <c r="C82" s="1">
-        <v>40.607703104723733</v>
+        <v>44.607703104723733</v>
       </c>
       <c r="D82" s="1">
-        <v>24.316347841433881</v>
+        <v>28.316347841433881</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1803,10 +1800,10 @@
         <v>26</v>
       </c>
       <c r="C83" s="1">
-        <v>73.830902579540151</v>
+        <v>77.830902579540151</v>
       </c>
       <c r="D83" s="1">
-        <v>42.939939949808469</v>
+        <v>46.939939949808469</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1817,10 +1814,10 @@
         <v>27</v>
       </c>
       <c r="C84" s="1">
-        <v>116.5989392300182</v>
+        <v>120.5989392300182</v>
       </c>
       <c r="D84" s="1">
-        <v>62.381745348435558</v>
+        <v>66.381745348435558</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1831,10 +1828,10 @@
         <v>28</v>
       </c>
       <c r="C85" s="1">
-        <v>181.39075922916183</v>
+        <v>185.39075922916183</v>
       </c>
       <c r="D85" s="1">
-        <v>100.76676950821107</v>
+        <v>104.76676950821107</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -1845,10 +1842,10 @@
         <v>29</v>
       </c>
       <c r="C86" s="1">
-        <v>444.07393004263764</v>
+        <v>448.07393004263764</v>
       </c>
       <c r="D86" s="1">
-        <v>261.02135928725522</v>
+        <v>265.02135928725522</v>
       </c>
     </row>
   </sheetData>
